--- a/data/pred_conc_sus edit.xlsx
+++ b/data/pred_conc_sus edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labuser\Documents\GitHub\PFOA_semi_quant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE7A59-E75D-4F89-881F-54CE9AFF4232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED181A-8B44-403A-8FD6-BC0141132C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>pred_conc_pg_uL</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>6:2 FTSA</t>
+  </si>
+  <si>
+    <t>ng F/g</t>
+  </si>
+  <si>
+    <t>ext vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sample mass (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert to </t>
+  </si>
+  <si>
+    <t>pg F/uL</t>
   </si>
 </sst>
 </file>
@@ -94,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,368 +410,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:J18"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>16.614993058105899</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E2">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2:O2">TRANSPOSE(B2:B7)</f>
+        <v>16.614993058105899</v>
+      </c>
+      <c r="K2">
+        <v>70.711375323454305</v>
+      </c>
+      <c r="L2">
+        <v>4.7415873221838103</v>
+      </c>
+      <c r="M2">
+        <v>11.1381704070763</v>
+      </c>
+      <c r="N2">
+        <v>8.4221890280293796E-2</v>
+      </c>
+      <c r="O2">
+        <v>2.1804767954687798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>70.711375323454305</v>
+      </c>
+      <c r="D3" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E3">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>16.614993058105899</v>
+      </c>
+      <c r="K3">
+        <v>70.711375323454305</v>
+      </c>
+      <c r="L3">
+        <v>4.7415873221838103</v>
+      </c>
+      <c r="M3">
+        <v>11.1381704070763</v>
+      </c>
+      <c r="N3">
+        <v>8.4221890280293796E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.1804767954687798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4.7415873221838103</v>
+      </c>
+      <c r="D4" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E4">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>11.1381704070763</v>
+      </c>
+      <c r="D5" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E5">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>8.4221890280293796E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E6">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.1804767954687798</v>
+      </c>
+      <c r="D7" s="1">
+        <v>975.44529262086519</v>
+      </c>
+      <c r="E7">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <f t="array" ref="D2:I2">TRANSPOSE(A2:A7)</f>
-        <v>16.614993058105899</v>
-      </c>
-      <c r="E2">
-        <v>70.711375323454305</v>
-      </c>
-      <c r="F2">
-        <v>4.7415873221838103</v>
-      </c>
-      <c r="G2">
-        <v>11.1381704070763</v>
-      </c>
-      <c r="H2">
-        <v>8.4221890280293796E-2</v>
-      </c>
-      <c r="I2">
-        <v>2.1804767954687798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>70.711375323454305</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B9">
+        <v>33.1585759095898</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="array" ref="J9:P9">TRANSPOSE(B9:B15)</f>
+        <v>33.1585759095898</v>
+      </c>
+      <c r="K9">
+        <v>134.22150842002699</v>
+      </c>
+      <c r="L9">
+        <v>13.5340715095266</v>
+      </c>
+      <c r="M9">
+        <v>1.20074704190431</v>
+      </c>
+      <c r="N9">
+        <v>4.7107274552929601</v>
+      </c>
+      <c r="O9">
+        <v>0.98990869710038798</v>
+      </c>
+      <c r="P9">
+        <v>0.13140183513508999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>16.614993058105899</v>
-      </c>
-      <c r="E3">
-        <v>70.711375323454305</v>
-      </c>
-      <c r="F3">
-        <v>4.7415873221838103</v>
-      </c>
-      <c r="G3">
-        <v>11.1381704070763</v>
-      </c>
-      <c r="H3">
-        <v>8.4221890280293796E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.1804767954687798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.7415873221838103</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10">
+        <v>134.22150842002699</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>33.1585759095898</v>
+      </c>
+      <c r="K10">
+        <v>134.22150842002699</v>
+      </c>
+      <c r="L10">
+        <v>13.5340715095266</v>
+      </c>
+      <c r="M10">
+        <v>1.20074704190431</v>
+      </c>
+      <c r="N10">
+        <v>4.7107274552929601</v>
+      </c>
+      <c r="O10">
+        <v>0.98990869710038798</v>
+      </c>
+      <c r="P10">
+        <v>0.13140183513508999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11.1381704070763</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B11">
+        <v>13.5340715095266</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.20074704190431</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8.4221890280293796E-2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B13">
+        <v>4.7107274552929601</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.1804767954687798</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B14">
+        <v>0.98990869710038798</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.13140183513508999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1024.8091603053435</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>16.075326802171201</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f t="array" ref="J17:P17">TRANSPOSE(B17:B23)</f>
+        <v>16.075326802171201</v>
+      </c>
+      <c r="K17">
+        <v>86.671401554949597</v>
+      </c>
+      <c r="L17">
+        <v>7.4950101691723798</v>
+      </c>
+      <c r="M17">
+        <v>1.6363533828704599</v>
+      </c>
+      <c r="N17">
+        <v>2.52276834547754</v>
+      </c>
+      <c r="O17">
+        <v>0.16055427385561799</v>
+      </c>
+      <c r="P17">
+        <v>5.3345175643517699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>86.671401554949597</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>16.075326802171201</v>
+      </c>
+      <c r="K18">
+        <v>86.671401554949597</v>
+      </c>
+      <c r="L18">
+        <v>7.4950101691723798</v>
+      </c>
+      <c r="M18">
+        <v>1.6363533828704599</v>
+      </c>
+      <c r="N18">
+        <v>2.52276834547754</v>
+      </c>
+      <c r="O18">
+        <v>0.16055427385561799</v>
+      </c>
+      <c r="P18">
+        <v>5.3345175643517699E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>7.4950101691723798</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>33.1585759095898</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f t="array" ref="D9:J9">TRANSPOSE(A9:A15)</f>
-        <v>33.1585759095898</v>
-      </c>
-      <c r="E9">
-        <v>134.22150842002699</v>
-      </c>
-      <c r="F9">
-        <v>13.5340715095266</v>
-      </c>
-      <c r="G9">
-        <v>1.20074704190431</v>
-      </c>
-      <c r="H9">
-        <v>4.7107274552929601</v>
-      </c>
-      <c r="I9">
-        <v>0.98990869710038798</v>
-      </c>
-      <c r="J9">
-        <v>0.13140183513508999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>134.22150842002699</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>33.1585759095898</v>
-      </c>
-      <c r="E10">
-        <v>134.22150842002699</v>
-      </c>
-      <c r="F10">
-        <v>13.5340715095266</v>
-      </c>
-      <c r="G10">
-        <v>1.20074704190431</v>
-      </c>
-      <c r="H10">
-        <v>4.7107274552929601</v>
-      </c>
-      <c r="I10">
-        <v>0.98990869710038798</v>
-      </c>
-      <c r="J10">
-        <v>0.13140183513508999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>13.5340715095266</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.20074704190431</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4.7107274552929601</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B20">
+        <v>1.6363533828704599</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.98990869710038798</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B21">
+        <v>2.52276834547754</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.13140183513508999</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B22">
+        <v>0.16055427385561799</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16.075326802171201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <f t="array" ref="D17:J17">TRANSPOSE(A17:A23)</f>
-        <v>16.075326802171201</v>
-      </c>
-      <c r="E17">
-        <v>86.671401554949597</v>
-      </c>
-      <c r="F17">
-        <v>7.4950101691723798</v>
-      </c>
-      <c r="G17">
-        <v>1.6363533828704599</v>
-      </c>
-      <c r="H17">
-        <v>2.52276834547754</v>
-      </c>
-      <c r="I17">
-        <v>0.16055427385561799</v>
-      </c>
-      <c r="J17">
+      <c r="B23">
         <v>5.3345175643517699E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>86.671401554949597</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>16.075326802171201</v>
-      </c>
-      <c r="E18">
-        <v>86.671401554949597</v>
-      </c>
-      <c r="F18">
-        <v>7.4950101691723798</v>
-      </c>
-      <c r="G18">
-        <v>1.6363533828704599</v>
-      </c>
-      <c r="H18">
-        <v>2.52276834547754</v>
-      </c>
-      <c r="I18">
-        <v>0.16055427385561799</v>
-      </c>
-      <c r="J18">
-        <v>5.3345175643517699E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7.4950101691723798</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.6363533828704599</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2.52276834547754</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.16055427385561799</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5.3345175643517699E-2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1">
+        <v>1080.0254452926208</v>
+      </c>
+      <c r="I23" t="s">
         <v>6</v>
       </c>
     </row>
